--- a/Отчет тест файл2.xlsx
+++ b/Отчет тест файл2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="245">
   <si>
     <t xml:space="preserve">Ссылка на компанию</t>
   </si>
@@ -758,45 +758,6 @@
   </si>
   <si>
     <t xml:space="preserve">Пульс Цен Екатеринбург (НК)</t>
-  </si>
-  <si>
-    <t>Пульс цен Казань</t>
-  </si>
-  <si>
-    <t>Пульс Цен Санкт-Петербург и Нижний Новгород</t>
-  </si>
-  <si>
-    <t>Пульс цен Екатеринбург</t>
-  </si>
-  <si>
-    <t>Пульс Цен Сибирь</t>
-  </si>
-  <si>
-    <t>Пульс цен Новосибирск</t>
-  </si>
-  <si>
-    <t>Пульс Цен Москва</t>
-  </si>
-  <si>
-    <t>Пульс Цен Челябинск</t>
-  </si>
-  <si>
-    <t>Пульс Цен НК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пульс Цен Новосибирск </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пульс Цен Краснодар </t>
-  </si>
-  <si>
-    <t>Пульс Цен Краснодар и Ростов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Челябинск </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пульс Цен Екатеринбург </t>
   </si>
 </sst>
 </file>
@@ -1209,33 +1170,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="16.53" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.43" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="16.11" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="9.14" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="15.43" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="5.73" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="6.39" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="0" width="12.9" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="0" width="6.06" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="4.73" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="11.68" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="11.81" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="12.35" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="14.33" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1301,9 +1262,7 @@
       <c r="F2" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>245</v>
-      </c>
+      <c r="G2" s="11"/>
       <c r="H2" s="12" t="n">
         <f aca="false">IF(K2="К",F2*20,IF(K2="Л",F2*45,IF(K2="ГУ",F2*30,IF(K2="ГМ",F2*40,IF(K2="Д",F2*30,IF(K2="ГУ1",F2*22.5,IF(K2="К1",F2*10,)))))))</f>
         <v>200</v>
@@ -1349,9 +1308,7 @@
       <c r="F3" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>246</v>
-      </c>
+      <c r="G3" s="11"/>
       <c r="H3" s="12" t="n">
         <f aca="false">IF(K3="К",F3*20,IF(K3="Л",F3*45,IF(K3="ГУ",F3*30,IF(K3="ГМ",F3*40,IF(K3="Д",F3*30,IF(K3="ГУ1",F3*22.5,IF(K3="К1",F3*10,)))))))</f>
         <v>200</v>
@@ -1397,9 +1354,7 @@
       <c r="F4" s="10" t="n">
         <v>78</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>247</v>
-      </c>
+      <c r="G4" s="11"/>
       <c r="H4" s="12" t="n">
         <f aca="false">IF(K4="К",F4*20,IF(K4="Л",F4*45,IF(K4="ГУ",F4*30,IF(K4="ГМ",F4*40,IF(K4="Д",F4*30,IF(K4="ГУ1",F4*22.5,IF(K4="К1",F4*10,)))))))</f>
         <v>1560</v>
@@ -1445,9 +1400,7 @@
       <c r="F5" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>239</v>
-      </c>
+      <c r="G5" s="11"/>
       <c r="H5" s="12" t="n">
         <f aca="false">IF(K5="К",F5*20,IF(K5="Л",F5*45,IF(K5="ГУ",F5*30,IF(K5="ГМ",F5*40,IF(K5="Д",F5*30,IF(K5="ГУ1",F5*22.5,IF(K5="К1",F5*10,)))))))</f>
         <v>160</v>
@@ -1493,9 +1446,7 @@
       <c r="F6" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>248</v>
-      </c>
+      <c r="G6" s="11"/>
       <c r="H6" s="12" t="n">
         <f aca="false">IF(K6="К",F6*20,IF(K6="Л",F6*45,IF(K6="ГУ",F6*30,IF(K6="ГМ",F6*40,IF(K6="Д",F6*30,IF(K6="ГУ1",F6*22.5,IF(K6="К1",F6*10,)))))))</f>
         <v>480</v>
@@ -1541,9 +1492,7 @@
       <c r="F7" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>239</v>
-      </c>
+      <c r="G7" s="11"/>
       <c r="H7" s="12" t="n">
         <f aca="false">IF(K7="К",F7*20,IF(K7="Л",F7*45,IF(K7="ГУ",F7*30,IF(K7="ГМ",F7*40,IF(K7="Д",F7*30,IF(K7="ГУ1",F7*22.5,IF(K7="К1",F7*10,)))))))</f>
         <v>135</v>
@@ -1589,9 +1538,7 @@
       <c r="F8" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>249</v>
-      </c>
+      <c r="G8" s="11"/>
       <c r="H8" s="12" t="n">
         <f aca="false">IF(K8="К",F8*20,IF(K8="Л",F8*45,IF(K8="ГУ",F8*30,IF(K8="ГМ",F8*40,IF(K8="Д",F8*30,IF(K8="ГУ1",F8*22.5,IF(K8="К1",F8*10,)))))))</f>
         <v>500</v>
@@ -1637,9 +1584,7 @@
       <c r="F9" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>247</v>
-      </c>
+      <c r="G9" s="11"/>
       <c r="H9" s="12" t="n">
         <f aca="false">IF(K9="К",F9*20,IF(K9="Л",F9*45,IF(K9="ГУ",F9*30,IF(K9="ГМ",F9*40,IF(K9="Д",F9*30,IF(K9="ГУ1",F9*22.5,IF(K9="К1",F9*10,)))))))</f>
         <v>1000</v>
@@ -1685,9 +1630,7 @@
       <c r="F10" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>250</v>
-      </c>
+      <c r="G10" s="11"/>
       <c r="H10" s="23" t="n">
         <f aca="false">IF(K10="К",F10*20,IF(K10="Л",F10*45,IF(K10="ГУ",F10*30,IF(K10="ГМ",F10*40,IF(K10="Д",F10*30,IF(K10="ГУ1",F10*22.5,IF(K10="К1",F10*10,)))))))</f>
         <v>45</v>
@@ -1733,9 +1676,7 @@
       <c r="F11" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>245</v>
-      </c>
+      <c r="G11" s="11"/>
       <c r="H11" s="12" t="n">
         <f aca="false">IF(K11="К",F11*20,IF(K11="Л",F11*45,IF(K11="ГУ",F11*30,IF(K11="ГМ",F11*40,IF(K11="Д",F11*30,IF(K11="ГУ1",F11*22.5,IF(K11="К1",F11*10,)))))))</f>
         <v>540</v>
@@ -1781,9 +1722,7 @@
       <c r="F12" s="10" t="n">
         <v>26</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>251</v>
-      </c>
+      <c r="G12" s="11"/>
       <c r="H12" s="12" t="n">
         <f aca="false">IF(K12="К",F12*20,IF(K12="Л",F12*45,IF(K12="ГУ",F12*30,IF(K12="ГМ",F12*40,IF(K12="Д",F12*30,IF(K12="ГУ1",F12*22.5,IF(K12="К1",F12*10,)))))))</f>
         <v>520</v>
@@ -1829,9 +1768,7 @@
       <c r="F13" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>252</v>
-      </c>
+      <c r="G13" s="11"/>
       <c r="H13" s="12" t="n">
         <f aca="false">IF(K13="К",F13*20,IF(K13="Л",F13*45,IF(K13="ГУ",F13*30,IF(K13="ГМ",F13*40,IF(K13="Д",F13*30,IF(K13="ГУ1",F13*22.5,IF(K13="К1",F13*10,)))))))</f>
         <v>80</v>
@@ -1877,9 +1814,7 @@
       <c r="F14" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>251</v>
-      </c>
+      <c r="G14" s="11"/>
       <c r="H14" s="12" t="n">
         <f aca="false">IF(K14="К",F14*20,IF(K14="Л",F14*45,IF(K14="ГУ",F14*30,IF(K14="ГМ",F14*40,IF(K14="Д",F14*30,IF(K14="ГУ1",F14*22.5,IF(K14="К1",F14*10,)))))))</f>
         <v>180</v>
@@ -1925,9 +1860,7 @@
       <c r="F15" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>247</v>
-      </c>
+      <c r="G15" s="11"/>
       <c r="H15" s="12" t="n">
         <f aca="false">IF(K15="К",F15*20,IF(K15="Л",F15*45,IF(K15="ГУ",F15*30,IF(K15="ГМ",F15*40,IF(K15="Д",F15*30,IF(K15="ГУ1",F15*22.5,IF(K15="К1",F15*10,)))))))</f>
         <v>45</v>
@@ -1973,9 +1906,7 @@
       <c r="F16" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>253</v>
-      </c>
+      <c r="G16" s="11"/>
       <c r="H16" s="12" t="n">
         <f aca="false">IF(K16="К",F16*20,IF(K16="Л",F16*45,IF(K16="ГУ",F16*30,IF(K16="ГМ",F16*40,IF(K16="Д",F16*30,IF(K16="ГУ1",F16*22.5,IF(K16="К1",F16*10,)))))))</f>
         <v>500</v>
@@ -2021,9 +1952,7 @@
       <c r="F17" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>247</v>
-      </c>
+      <c r="G17" s="11"/>
       <c r="H17" s="12" t="n">
         <f aca="false">IF(K17="К",F17*20,IF(K17="Л",F17*45,IF(K17="ГУ",F17*30,IF(K17="ГМ",F17*40,IF(K17="Д",F17*30,IF(K17="ГУ1",F17*22.5,IF(K17="К1",F17*10,)))))))</f>
         <v>60</v>
@@ -2069,9 +1998,7 @@
       <c r="F18" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>247</v>
-      </c>
+      <c r="G18" s="11"/>
       <c r="H18" s="12" t="n">
         <f aca="false">IF(K18="К",F18*20,IF(K18="Л",F18*45,IF(K18="ГУ",F18*30,IF(K18="ГМ",F18*40,IF(K18="Д",F18*30,IF(K18="ГУ1",F18*22.5,IF(K18="К1",F18*10,)))))))</f>
         <v>40</v>
@@ -2117,9 +2044,7 @@
       <c r="F19" s="25" t="n">
         <v>14</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>250</v>
-      </c>
+      <c r="G19" s="11"/>
       <c r="H19" s="26" t="n">
         <f aca="false">IF(K19="К",F19*20,IF(K19="Л",F19*45,IF(K19="ГУ",F19*30,IF(K19="ГМ",F19*40,IF(K19="Д",F19*30,IF(K19="ГУ1",F19*22.5,IF(K19="К1",F19*10,)))))))</f>
         <v>280</v>
@@ -2165,9 +2090,7 @@
       <c r="F20" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>251</v>
-      </c>
+      <c r="G20" s="11"/>
       <c r="H20" s="12" t="n">
         <f aca="false">IF(K20="К",F20*20,IF(K20="Л",F20*45,IF(K20="ГУ",F20*30,IF(K20="ГМ",F20*40,IF(K20="Д",F20*30,IF(K20="ГУ1",F20*22.5,IF(K20="К1",F20*10,)))))))</f>
         <v>500</v>
@@ -2259,9 +2182,7 @@
       <c r="F22" s="25" t="n">
         <v>25</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>254</v>
-      </c>
+      <c r="G22" s="11"/>
       <c r="H22" s="26" t="n">
         <f aca="false">IF(K22="К",F22*20,IF(K22="Л",F22*45,IF(K22="ГУ",F22*30,IF(K22="ГМ",F22*40,IF(K22="Д",F22*30,IF(K22="ГУ1",F22*22.5,IF(K22="К1",F22*10,)))))))</f>
         <v>500</v>
@@ -2307,9 +2228,7 @@
       <c r="F23" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>254</v>
-      </c>
+      <c r="G23" s="11"/>
       <c r="H23" s="12" t="n">
         <f aca="false">IF(K23="К",F23*20,IF(K23="Л",F23*45,IF(K23="ГУ",F23*30,IF(K23="ГМ",F23*40,IF(K23="Д",F23*30,IF(K23="ГУ1",F23*22.5,IF(K23="К1",F23*10,)))))))</f>
         <v>500</v>
@@ -2355,9 +2274,7 @@
       <c r="F24" s="25" t="n">
         <v>13</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>250</v>
-      </c>
+      <c r="G24" s="11"/>
       <c r="H24" s="26" t="n">
         <f aca="false">IF(K24="К",F24*20,IF(K24="Л",F24*45,IF(K24="ГУ",F24*30,IF(K24="ГМ",F24*40,IF(K24="Д",F24*30,IF(K24="ГУ1",F24*22.5,IF(K24="К1",F24*10,)))))))</f>
         <v>260</v>
@@ -2403,9 +2320,7 @@
       <c r="F25" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>239</v>
-      </c>
+      <c r="G25" s="11"/>
       <c r="H25" s="12" t="n">
         <f aca="false">IF(K25="К",F25*20,IF(K25="Л",F25*45,IF(K25="ГУ",F25*30,IF(K25="ГМ",F25*40,IF(K25="Д",F25*30,IF(K25="ГУ1",F25*22.5,IF(K25="К1",F25*10,)))))))</f>
         <v>420</v>
@@ -2497,9 +2412,7 @@
       <c r="F27" s="31" t="n">
         <v>12</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>239</v>
-      </c>
+      <c r="G27" s="11"/>
       <c r="H27" s="32" t="n">
         <f aca="false">IF(K27="К",F27*20,IF(K27="Л",F27*45,IF(K27="ГУ",F27*30,IF(K27="ГМ",F27*40,IF(K27="Д",F27*30,IF(K27="ГУ1",F27*22.5,IF(K27="К1",F27*10,)))))))</f>
         <v>240</v>
@@ -2545,9 +2458,7 @@
       <c r="F28" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>255</v>
-      </c>
+      <c r="G28" s="11"/>
       <c r="H28" s="12" t="n">
         <f aca="false">IF(K28="К",F28*20,IF(K28="Л",F28*45,IF(K28="ГУ",F28*30,IF(K28="ГМ",F28*40,IF(K28="Д",F28*30,IF(K28="ГУ1",F28*22.5,IF(K28="К1",F28*10,)))))))</f>
         <v>380</v>
@@ -2593,9 +2504,7 @@
       <c r="F29" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>247</v>
-      </c>
+      <c r="G29" s="11"/>
       <c r="H29" s="12" t="n">
         <f aca="false">IF(K29="К",F29*20,IF(K29="Л",F29*45,IF(K29="ГУ",F29*30,IF(K29="ГМ",F29*40,IF(K29="Д",F29*30,IF(K29="ГУ1",F29*22.5,IF(K29="К1",F29*10,)))))))</f>
         <v>460</v>
@@ -2641,9 +2550,7 @@
       <c r="F30" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>248</v>
-      </c>
+      <c r="G30" s="11"/>
       <c r="H30" s="12" t="n">
         <f aca="false">IF(K30="К",F30*20,IF(K30="Л",F30*45,IF(K30="ГУ",F30*30,IF(K30="ГМ",F30*40,IF(K30="Д",F30*30,IF(K30="ГУ1",F30*22.5,IF(K30="К1",F30*10,)))))))</f>
         <v>500</v>
@@ -2735,9 +2642,7 @@
       <c r="F32" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>247</v>
-      </c>
+      <c r="G32" s="11"/>
       <c r="H32" s="12" t="n">
         <f aca="false">IF(K32="К",F32*20,IF(K32="Л",F32*45,IF(K32="ГУ",F32*30,IF(K32="ГМ",F32*40,IF(K32="Д",F32*30,IF(K32="ГУ1",F32*22.5,IF(K32="К1",F32*10,)))))))</f>
         <v>135</v>
@@ -2783,9 +2688,7 @@
       <c r="F33" s="25" t="n">
         <v>21</v>
       </c>
-      <c r="G33" s="11" t="s">
-        <v>245</v>
-      </c>
+      <c r="G33" s="11"/>
       <c r="H33" s="26" t="n">
         <f aca="false">IF(K33="К",F33*20,IF(K33="Л",F33*45,IF(K33="ГУ",F33*30,IF(K33="ГМ",F33*40,IF(K33="Д",F33*30,IF(K33="ГУ1",F33*22.5,IF(K33="К1",F33*10,)))))))</f>
         <v>420</v>
@@ -2831,9 +2734,7 @@
       <c r="F34" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="G34" s="11" t="s">
-        <v>256</v>
-      </c>
+      <c r="G34" s="11"/>
       <c r="H34" s="12" t="n">
         <f aca="false">IF(K34="К",F34*20,IF(K34="Л",F34*45,IF(K34="ГУ",F34*30,IF(K34="ГМ",F34*40,IF(K34="Д",F34*30,IF(K34="ГУ1",F34*22.5,IF(K34="К1",F34*10,)))))))</f>
         <v>100</v>
@@ -2879,9 +2780,7 @@
       <c r="F35" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>256</v>
-      </c>
+      <c r="G35" s="11"/>
       <c r="H35" s="12" t="n">
         <f aca="false">IF(K35="К",F35*20,IF(K35="Л",F35*45,IF(K35="ГУ",F35*30,IF(K35="ГМ",F35*40,IF(K35="Д",F35*30,IF(K35="ГУ1",F35*22.5,IF(K35="К1",F35*10,)))))))</f>
         <v>45</v>
@@ -2927,9 +2826,7 @@
       <c r="F36" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>247</v>
-      </c>
+      <c r="G36" s="11"/>
       <c r="H36" s="12" t="n">
         <f aca="false">IF(K36="К",F36*20,IF(K36="Л",F36*45,IF(K36="ГУ",F36*30,IF(K36="ГМ",F36*40,IF(K36="Д",F36*30,IF(K36="ГУ1",F36*22.5,IF(K36="К1",F36*10,)))))))</f>
         <v>1350</v>
@@ -2975,9 +2872,7 @@
       <c r="F37" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="G37" s="11" t="s">
-        <v>252</v>
-      </c>
+      <c r="G37" s="11"/>
       <c r="H37" s="12" t="n">
         <f aca="false">IF(K37="К",F37*20,IF(K37="Л",F37*45,IF(K37="ГУ",F37*30,IF(K37="ГМ",F37*40,IF(K37="Д",F37*30,IF(K37="ГУ1",F37*22.5,IF(K37="К1",F37*10,)))))))</f>
         <v>300</v>
@@ -3023,9 +2918,7 @@
       <c r="F38" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>253</v>
-      </c>
+      <c r="G38" s="11"/>
       <c r="H38" s="12" t="n">
         <f aca="false">IF(K38="К",F38*20,IF(K38="Л",F38*45,IF(K38="ГУ",F38*30,IF(K38="ГМ",F38*40,IF(K38="Д",F38*30,IF(K38="ГУ1",F38*22.5,IF(K38="К1",F38*10,)))))))</f>
         <v>20</v>
@@ -3071,9 +2964,7 @@
       <c r="F39" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="G39" s="11" t="s">
-        <v>248</v>
-      </c>
+      <c r="G39" s="11"/>
       <c r="H39" s="12" t="n">
         <f aca="false">IF(K39="К",F39*20,IF(K39="Л",F39*45,IF(K39="ГУ",F39*30,IF(K39="ГМ",F39*40,IF(K39="Д",F39*30,IF(K39="ГУ1",F39*22.5,IF(K39="К1",F39*10,)))))))</f>
         <v>500</v>
@@ -3119,9 +3010,7 @@
       <c r="F40" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="G40" s="11" t="s">
-        <v>249</v>
-      </c>
+      <c r="G40" s="11"/>
       <c r="H40" s="12" t="n">
         <f aca="false">IF(K40="К",F40*20,IF(K40="Л",F40*45,IF(K40="ГУ",F40*30,IF(K40="ГМ",F40*40,IF(K40="Д",F40*30,IF(K40="ГУ1",F40*22.5,IF(K40="К1",F40*10,)))))))</f>
         <v>380</v>
@@ -3167,9 +3056,7 @@
       <c r="F41" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>249</v>
-      </c>
+      <c r="G41" s="11"/>
       <c r="H41" s="12" t="n">
         <f aca="false">IF(K41="К",F41*20,IF(K41="Л",F41*45,IF(K41="ГУ",F41*30,IF(K41="ГМ",F41*40,IF(K41="Д",F41*30,IF(K41="ГУ1",F41*22.5,IF(K41="К1",F41*10,)))))))</f>
         <v>360</v>
@@ -3261,9 +3148,7 @@
       <c r="F43" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="G43" s="11" t="s">
-        <v>251</v>
-      </c>
+      <c r="G43" s="11"/>
       <c r="H43" s="12" t="n">
         <f aca="false">IF(K43="К",F43*20,IF(K43="Л",F43*45,IF(K43="ГУ",F43*30,IF(K43="ГМ",F43*40,IF(K43="Д",F43*30,IF(K43="ГУ1",F43*22.5,IF(K43="К1",F43*10,)))))))</f>
         <v>1000</v>
@@ -3309,9 +3194,7 @@
       <c r="F44" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G44" s="11" t="s">
-        <v>257</v>
-      </c>
+      <c r="G44" s="11"/>
       <c r="H44" s="12" t="n">
         <f aca="false">IF(K44="К",F44*20,IF(K44="Л",F44*45,IF(K44="ГУ",F44*30,IF(K44="ГМ",F44*40,IF(K44="Д",F44*30,IF(K44="ГУ1",F44*22.5,IF(K44="К1",F44*10,)))))))</f>
         <v>45</v>
@@ -3357,9 +3240,7 @@
       <c r="F45" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G45" s="11" t="s">
-        <v>246</v>
-      </c>
+      <c r="G45" s="11"/>
       <c r="H45" s="12" t="n">
         <f aca="false">IF(K45="К",F45*20,IF(K45="Л",F45*45,IF(K45="ГУ",F45*30,IF(K45="ГМ",F45*40,IF(K45="Д",F45*30,IF(K45="ГУ1",F45*22.5,IF(K45="К1",F45*10,)))))))</f>
         <v>135</v>
@@ -3405,9 +3286,7 @@
       <c r="F46" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="G46" s="11" t="s">
-        <v>252</v>
-      </c>
+      <c r="G46" s="11"/>
       <c r="H46" s="12" t="n">
         <f aca="false">IF(K46="К",F46*20,IF(K46="Л",F46*45,IF(K46="ГУ",F46*30,IF(K46="ГМ",F46*40,IF(K46="Д",F46*30,IF(K46="ГУ1",F46*22.5,IF(K46="К1",F46*10,)))))))</f>
         <v>280</v>
@@ -3453,9 +3332,7 @@
       <c r="F47" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="G47" s="11" t="s">
-        <v>239</v>
-      </c>
+      <c r="G47" s="11"/>
       <c r="H47" s="12" t="n">
         <f aca="false">IF(K47="К",F47*20,IF(K47="Л",F47*45,IF(K47="ГУ",F47*30,IF(K47="ГМ",F47*40,IF(K47="Д",F47*30,IF(K47="ГУ1",F47*22.5,IF(K47="К1",F47*10,)))))))</f>
         <v>280</v>
@@ -3501,9 +3378,7 @@
       <c r="F48" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G48" s="11" t="s">
-        <v>254</v>
-      </c>
+      <c r="G48" s="11"/>
       <c r="H48" s="12" t="n">
         <f aca="false">IF(K48="К",F48*20,IF(K48="Л",F48*45,IF(K48="ГУ",F48*30,IF(K48="ГМ",F48*40,IF(K48="Д",F48*30,IF(K48="ГУ1",F48*22.5,IF(K48="К1",F48*10,)))))))</f>
         <v>20</v>
@@ -3549,9 +3424,7 @@
       <c r="F49" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="G49" s="11" t="s">
-        <v>253</v>
-      </c>
+      <c r="G49" s="11"/>
       <c r="H49" s="12" t="n">
         <f aca="false">IF(K49="К",F49*20,IF(K49="Л",F49*45,IF(K49="ГУ",F49*30,IF(K49="ГМ",F49*40,IF(K49="Д",F49*30,IF(K49="ГУ1",F49*22.5,IF(K49="К1",F49*10,)))))))</f>
         <v>140</v>
@@ -3597,9 +3470,7 @@
       <c r="F50" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="G50" s="11" t="s">
-        <v>251</v>
-      </c>
+      <c r="G50" s="11"/>
       <c r="H50" s="12" t="n">
         <f aca="false">IF(K50="К",F50*20,IF(K50="Л",F50*45,IF(K50="ГУ",F50*30,IF(K50="ГМ",F50*40,IF(K50="Д",F50*30,IF(K50="ГУ1",F50*22.5,IF(K50="К1",F50*10,)))))))</f>
         <v>200</v>
@@ -3645,9 +3516,7 @@
       <c r="F51" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G51" s="11" t="s">
-        <v>246</v>
-      </c>
+      <c r="G51" s="11"/>
       <c r="H51" s="12" t="n">
         <f aca="false">IF(K51="К",F51*20,IF(K51="Л",F51*45,IF(K51="ГУ",F51*30,IF(K51="ГМ",F51*40,IF(K51="Д",F51*30,IF(K51="ГУ1",F51*22.5,IF(K51="К1",F51*10,)))))))</f>
         <v>40</v>
@@ -3693,9 +3562,7 @@
       <c r="F52" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G52" s="11" t="s">
-        <v>252</v>
-      </c>
+      <c r="G52" s="11"/>
       <c r="H52" s="12" t="n">
         <f aca="false">IF(K52="К",F52*20,IF(K52="Л",F52*45,IF(K52="ГУ",F52*30,IF(K52="ГМ",F52*40,IF(K52="Д",F52*30,IF(K52="ГУ1",F52*22.5,IF(K52="К1",F52*10,)))))))</f>
         <v>20</v>
@@ -3741,9 +3608,7 @@
       <c r="F53" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G53" s="11" t="s">
-        <v>257</v>
-      </c>
+      <c r="G53" s="11"/>
       <c r="H53" s="12" t="n">
         <f aca="false">IF(K53="К",F53*20,IF(K53="Л",F53*45,IF(K53="ГУ",F53*30,IF(K53="ГМ",F53*40,IF(K53="Д",F53*30,IF(K53="ГУ1",F53*22.5,IF(K53="К1",F53*10,)))))))</f>
         <v>60</v>
@@ -3835,9 +3700,7 @@
       <c r="F55" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G55" s="11" t="s">
-        <v>249</v>
-      </c>
+      <c r="G55" s="11"/>
       <c r="H55" s="12" t="n">
         <f aca="false">IF(K55="К",F55*20,IF(K55="Л",F55*45,IF(K55="ГУ",F55*30,IF(K55="ГМ",F55*40,IF(K55="Д",F55*30,IF(K55="ГУ1",F55*22.5,IF(K55="К1",F55*10,)))))))</f>
         <v>40</v>
@@ -3883,9 +3746,7 @@
       <c r="F56" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="G56" s="11" t="s">
-        <v>252</v>
-      </c>
+      <c r="G56" s="11"/>
       <c r="H56" s="12" t="n">
         <f aca="false">IF(K56="К",F56*20,IF(K56="Л",F56*45,IF(K56="ГУ",F56*30,IF(K56="ГМ",F56*40,IF(K56="Д",F56*30,IF(K56="ГУ1",F56*22.5,IF(K56="К1",F56*10,)))))))</f>
         <v>100</v>
@@ -3931,9 +3792,7 @@
       <c r="F57" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G57" s="11" t="s">
-        <v>257</v>
-      </c>
+      <c r="G57" s="11"/>
       <c r="H57" s="12" t="n">
         <f aca="false">IF(K57="К",F57*20,IF(K57="Л",F57*45,IF(K57="ГУ",F57*30,IF(K57="ГМ",F57*40,IF(K57="Д",F57*30,IF(K57="ГУ1",F57*22.5,IF(K57="К1",F57*10,)))))))</f>
         <v>60</v>
@@ -3979,9 +3838,7 @@
       <c r="F58" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G58" s="11" t="s">
-        <v>253</v>
-      </c>
+      <c r="G58" s="11"/>
       <c r="H58" s="12" t="n">
         <f aca="false">IF(K58="К",F58*20,IF(K58="Л",F58*45,IF(K58="ГУ",F58*30,IF(K58="ГМ",F58*40,IF(K58="Д",F58*30,IF(K58="ГУ1",F58*22.5,IF(K58="К1",F58*10,)))))))</f>
         <v>40</v>
@@ -4008,6 +3865,11 @@
         <v>58</v>
       </c>
     </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="A1:C6 B7 C7:C8 A7:A8 A9:C58">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -4032,14 +3894,14 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="G2:G58 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="G2:G60 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="21.49" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4485,12 +4347,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G2:G58 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G2:G60 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4513,12 +4375,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G2:G58 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G2:G60 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
